--- a/timesheet.xlsx
+++ b/timesheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bairz\Documents\RISE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zackary Bair\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{667608E6-CE4C-427E-97BF-26CBEF85683D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E305A1A0-BE82-4BD7-80BC-F8B975F653EE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="57840" windowHeight="32190" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="27">
   <si>
     <t>STEM Success RISE Research Associate Timesheet</t>
   </si>
@@ -108,6 +108,12 @@
   </si>
   <si>
     <t>4. Start a new timesheet for each monthly pay period.</t>
+  </si>
+  <si>
+    <t>Zackary Bair</t>
+  </si>
+  <si>
+    <t>005063193</t>
   </si>
 </sst>
 </file>
@@ -508,15 +514,23 @@
     <xf numFmtId="14" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="167" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -525,6 +539,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -541,21 +562,6 @@
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="17" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -778,8 +784,8 @@
   </sheetPr>
   <dimension ref="A1:J1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="M21" sqref="M21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
@@ -795,17 +801,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="27">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="56"/>
-      <c r="I1" s="56"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
     </row>
     <row r="2" spans="1:9" ht="15.75">
       <c r="A2" s="1"/>
@@ -822,16 +828,20 @@
       <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="60"/>
-      <c r="C3" s="59"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="59"/>
+      <c r="B3" s="67" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="66"/>
+      <c r="D3" s="66"/>
+      <c r="E3" s="66"/>
       <c r="F3" s="6"/>
       <c r="G3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="61"/>
-      <c r="I3" s="61"/>
+      <c r="H3" s="68" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" s="68"/>
     </row>
     <row r="4" spans="1:9" ht="15.75">
       <c r="A4" s="9"/>
@@ -849,15 +859,17 @@
         <v>3</v>
       </c>
       <c r="B5" s="5"/>
-      <c r="C5" s="62"/>
-      <c r="D5" s="59"/>
-      <c r="E5" s="59"/>
+      <c r="C5" s="69">
+        <v>44075</v>
+      </c>
+      <c r="D5" s="66"/>
+      <c r="E5" s="66"/>
       <c r="F5" s="6"/>
       <c r="G5" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="59"/>
-      <c r="I5" s="59"/>
+      <c r="H5" s="66"/>
+      <c r="I5" s="66"/>
     </row>
     <row r="6" spans="1:9" ht="15.75">
       <c r="A6" s="9"/>
@@ -884,10 +896,10 @@
       <c r="E7" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="58" t="s">
+      <c r="F7" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="G7" s="54"/>
+      <c r="G7" s="58"/>
       <c r="H7" s="16" t="s">
         <v>8</v>
       </c>
@@ -903,8 +915,8 @@
       <c r="C8" s="40"/>
       <c r="D8" s="40"/>
       <c r="E8" s="40"/>
-      <c r="F8" s="57"/>
-      <c r="G8" s="47"/>
+      <c r="F8" s="64"/>
+      <c r="G8" s="54"/>
       <c r="H8" s="18">
         <f>((D8*24)-(C8*24))+((F8*24)-(E8*24))</f>
         <v>0</v>
@@ -919,8 +931,8 @@
       <c r="C9" s="40"/>
       <c r="D9" s="40"/>
       <c r="E9" s="40"/>
-      <c r="F9" s="57"/>
-      <c r="G9" s="47"/>
+      <c r="F9" s="64"/>
+      <c r="G9" s="54"/>
       <c r="H9" s="18">
         <f t="shared" ref="H9:H13" si="0">((D9*24)-(C9*24))+((F9*24)-(E9*24))</f>
         <v>0</v>
@@ -935,8 +947,8 @@
       <c r="C10" s="40"/>
       <c r="D10" s="40"/>
       <c r="E10" s="40"/>
-      <c r="F10" s="57"/>
-      <c r="G10" s="47"/>
+      <c r="F10" s="64"/>
+      <c r="G10" s="54"/>
       <c r="H10" s="18">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -951,8 +963,8 @@
       <c r="C11" s="40"/>
       <c r="D11" s="40"/>
       <c r="E11" s="41"/>
-      <c r="F11" s="46"/>
-      <c r="G11" s="47"/>
+      <c r="F11" s="53"/>
+      <c r="G11" s="54"/>
       <c r="H11" s="18">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -967,8 +979,8 @@
       <c r="C12" s="41"/>
       <c r="D12" s="41"/>
       <c r="E12" s="41"/>
-      <c r="F12" s="46"/>
-      <c r="G12" s="47"/>
+      <c r="F12" s="53"/>
+      <c r="G12" s="54"/>
       <c r="H12" s="18">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -979,15 +991,21 @@
       <c r="A13" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="43"/>
-      <c r="C13" s="41"/>
-      <c r="D13" s="41"/>
+      <c r="B13" s="43">
+        <v>44092</v>
+      </c>
+      <c r="C13" s="41">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="D13" s="41">
+        <v>0.60416666666666663</v>
+      </c>
       <c r="E13" s="41"/>
-      <c r="F13" s="46"/>
-      <c r="G13" s="47"/>
+      <c r="F13" s="53"/>
+      <c r="G13" s="54"/>
       <c r="H13" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="I13" s="15"/>
     </row>
@@ -995,15 +1013,21 @@
       <c r="A14" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="43"/>
-      <c r="C14" s="41"/>
-      <c r="D14" s="41"/>
+      <c r="B14" s="43">
+        <v>44093</v>
+      </c>
+      <c r="C14" s="41">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="D14" s="41">
+        <v>0.6875</v>
+      </c>
       <c r="E14" s="42"/>
-      <c r="F14" s="51"/>
-      <c r="G14" s="52"/>
+      <c r="F14" s="55"/>
+      <c r="G14" s="56"/>
       <c r="H14" s="18">
         <f>((D14*24)-(C14*24))+((F14*24)-(E14*24))</f>
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="I14" s="15"/>
     </row>
@@ -1019,7 +1043,7 @@
       <c r="G15" s="50"/>
       <c r="H15" s="20">
         <f>SUM(H8:H14)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I15" s="6"/>
     </row>
@@ -1048,10 +1072,10 @@
       <c r="E17" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="F17" s="53" t="s">
+      <c r="F17" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="G17" s="54"/>
+      <c r="G17" s="58"/>
       <c r="H17" s="16" t="s">
         <v>8</v>
       </c>
@@ -1067,8 +1091,8 @@
       <c r="C18" s="40"/>
       <c r="D18" s="40"/>
       <c r="E18" s="41"/>
-      <c r="F18" s="46"/>
-      <c r="G18" s="47"/>
+      <c r="F18" s="53"/>
+      <c r="G18" s="54"/>
       <c r="H18" s="18">
         <f>((D18*24)-(C18*24))+((F18*24)-(E18*24))</f>
         <v>0</v>
@@ -1083,8 +1107,8 @@
       <c r="C19" s="40"/>
       <c r="D19" s="40"/>
       <c r="E19" s="41"/>
-      <c r="F19" s="46"/>
-      <c r="G19" s="47"/>
+      <c r="F19" s="53"/>
+      <c r="G19" s="54"/>
       <c r="H19" s="18">
         <f t="shared" ref="H19:H24" si="1">((D19*24)-(C19*24))+((F19*24)-(E19*24))</f>
         <v>0</v>
@@ -1099,8 +1123,8 @@
       <c r="C20" s="41"/>
       <c r="D20" s="41"/>
       <c r="E20" s="41"/>
-      <c r="F20" s="46"/>
-      <c r="G20" s="47"/>
+      <c r="F20" s="53"/>
+      <c r="G20" s="54"/>
       <c r="H20" s="18">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -1115,8 +1139,8 @@
       <c r="C21" s="40"/>
       <c r="D21" s="40"/>
       <c r="E21" s="41"/>
-      <c r="F21" s="46"/>
-      <c r="G21" s="47"/>
+      <c r="F21" s="53"/>
+      <c r="G21" s="54"/>
       <c r="H21" s="18">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -1131,8 +1155,8 @@
       <c r="C22" s="41"/>
       <c r="D22" s="41"/>
       <c r="E22" s="41"/>
-      <c r="F22" s="46"/>
-      <c r="G22" s="47"/>
+      <c r="F22" s="53"/>
+      <c r="G22" s="54"/>
       <c r="H22" s="18">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -1147,8 +1171,8 @@
       <c r="C23" s="41"/>
       <c r="D23" s="41"/>
       <c r="E23" s="41"/>
-      <c r="F23" s="46"/>
-      <c r="G23" s="47"/>
+      <c r="F23" s="53"/>
+      <c r="G23" s="54"/>
       <c r="H23" s="18">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -1163,8 +1187,8 @@
       <c r="C24" s="41"/>
       <c r="D24" s="41"/>
       <c r="E24" s="42"/>
-      <c r="F24" s="51"/>
-      <c r="G24" s="52"/>
+      <c r="F24" s="55"/>
+      <c r="G24" s="56"/>
       <c r="H24" s="18">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -1212,10 +1236,10 @@
       <c r="E27" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="F27" s="53" t="s">
+      <c r="F27" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="G27" s="54"/>
+      <c r="G27" s="58"/>
       <c r="H27" s="16" t="s">
         <v>8</v>
       </c>
@@ -1231,8 +1255,8 @@
       <c r="C28" s="41"/>
       <c r="D28" s="41"/>
       <c r="E28" s="41"/>
-      <c r="F28" s="46"/>
-      <c r="G28" s="47"/>
+      <c r="F28" s="53"/>
+      <c r="G28" s="54"/>
       <c r="H28" s="18">
         <f>((D28*24)-(C28*24))+((F28*24)-(E28*24))</f>
         <v>0</v>
@@ -1247,8 +1271,8 @@
       <c r="C29" s="41"/>
       <c r="D29" s="41"/>
       <c r="E29" s="41"/>
-      <c r="F29" s="46"/>
-      <c r="G29" s="47"/>
+      <c r="F29" s="53"/>
+      <c r="G29" s="54"/>
       <c r="H29" s="18">
         <f t="shared" ref="H29:H34" si="2">((D29*24)-(C29*24))+((F29*24)-(E29*24))</f>
         <v>0</v>
@@ -1263,8 +1287,8 @@
       <c r="C30" s="40"/>
       <c r="D30" s="40"/>
       <c r="E30" s="41"/>
-      <c r="F30" s="46"/>
-      <c r="G30" s="47"/>
+      <c r="F30" s="53"/>
+      <c r="G30" s="54"/>
       <c r="H30" s="18">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -1279,8 +1303,8 @@
       <c r="C31" s="41"/>
       <c r="D31" s="41"/>
       <c r="E31" s="41"/>
-      <c r="F31" s="46"/>
-      <c r="G31" s="47"/>
+      <c r="F31" s="53"/>
+      <c r="G31" s="54"/>
       <c r="H31" s="18">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -1295,8 +1319,8 @@
       <c r="C32" s="40"/>
       <c r="D32" s="40"/>
       <c r="E32" s="41"/>
-      <c r="F32" s="46"/>
-      <c r="G32" s="47"/>
+      <c r="F32" s="53"/>
+      <c r="G32" s="54"/>
       <c r="H32" s="18">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -1311,8 +1335,8 @@
       <c r="C33" s="41"/>
       <c r="D33" s="41"/>
       <c r="E33" s="41"/>
-      <c r="F33" s="46"/>
-      <c r="G33" s="47"/>
+      <c r="F33" s="53"/>
+      <c r="G33" s="54"/>
       <c r="H33" s="18">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -1327,8 +1351,8 @@
       <c r="C34" s="41"/>
       <c r="D34" s="41"/>
       <c r="E34" s="42"/>
-      <c r="F34" s="51"/>
-      <c r="G34" s="52"/>
+      <c r="F34" s="55"/>
+      <c r="G34" s="56"/>
       <c r="H34" s="18">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -1376,10 +1400,10 @@
       <c r="E37" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="F37" s="53" t="s">
+      <c r="F37" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="G37" s="54"/>
+      <c r="G37" s="58"/>
       <c r="H37" s="16" t="s">
         <v>8</v>
       </c>
@@ -1395,8 +1419,8 @@
       <c r="C38" s="44"/>
       <c r="D38" s="44"/>
       <c r="E38" s="44"/>
-      <c r="F38" s="67"/>
-      <c r="G38" s="68"/>
+      <c r="F38" s="59"/>
+      <c r="G38" s="60"/>
       <c r="H38" s="18">
         <f>((D38*24)-(C38*24))+((F38*24)-(E38*24))</f>
         <v>0</v>
@@ -1411,8 +1435,8 @@
       <c r="C39" s="43"/>
       <c r="D39" s="43"/>
       <c r="E39" s="43"/>
-      <c r="F39" s="69"/>
-      <c r="G39" s="68"/>
+      <c r="F39" s="61"/>
+      <c r="G39" s="60"/>
       <c r="H39" s="18">
         <f t="shared" ref="H39:H44" si="3">((D39*24)-(C39*24))+((F39*24)-(E39*24))</f>
         <v>0</v>
@@ -1427,8 +1451,8 @@
       <c r="C40" s="44"/>
       <c r="D40" s="44"/>
       <c r="E40" s="44"/>
-      <c r="F40" s="67"/>
-      <c r="G40" s="68"/>
+      <c r="F40" s="59"/>
+      <c r="G40" s="60"/>
       <c r="H40" s="18">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -1443,8 +1467,8 @@
       <c r="C41" s="43"/>
       <c r="D41" s="43"/>
       <c r="E41" s="44"/>
-      <c r="F41" s="67"/>
-      <c r="G41" s="68"/>
+      <c r="F41" s="59"/>
+      <c r="G41" s="60"/>
       <c r="H41" s="18">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -1459,8 +1483,8 @@
       <c r="C42" s="44"/>
       <c r="D42" s="44"/>
       <c r="E42" s="44"/>
-      <c r="F42" s="67"/>
-      <c r="G42" s="68"/>
+      <c r="F42" s="59"/>
+      <c r="G42" s="60"/>
       <c r="H42" s="18">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -1475,8 +1499,8 @@
       <c r="C43" s="44"/>
       <c r="D43" s="44"/>
       <c r="E43" s="44"/>
-      <c r="F43" s="67"/>
-      <c r="G43" s="68"/>
+      <c r="F43" s="59"/>
+      <c r="G43" s="60"/>
       <c r="H43" s="18">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -1491,8 +1515,8 @@
       <c r="C44" s="44"/>
       <c r="D44" s="44"/>
       <c r="E44" s="45"/>
-      <c r="F44" s="63"/>
-      <c r="G44" s="64"/>
+      <c r="F44" s="46"/>
+      <c r="G44" s="47"/>
       <c r="H44" s="18">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -1523,14 +1547,14 @@
       <c r="B47" s="6"/>
       <c r="C47" s="6"/>
       <c r="D47" s="6"/>
-      <c r="E47" s="65" t="s">
+      <c r="E47" s="51" t="s">
         <v>18</v>
       </c>
       <c r="F47" s="49"/>
-      <c r="G47" s="66"/>
+      <c r="G47" s="52"/>
       <c r="H47" s="24">
         <f>SUM(H45+H35+H25+H15)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="15.75" customHeight="1">
@@ -4481,6 +4505,33 @@
     </row>
   </sheetData>
   <mergeCells count="42">
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="F9:G9"/>
     <mergeCell ref="F44:G44"/>
     <mergeCell ref="E45:G45"/>
     <mergeCell ref="E47:G47"/>
@@ -4496,33 +4547,6 @@
     <mergeCell ref="F40:G40"/>
     <mergeCell ref="F41:G41"/>
     <mergeCell ref="F43:G43"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="F27:G27"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -4531,18 +4555,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4755,14 +4779,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9029BFEE-2767-46A5-8FF1-D8842B26A38F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1A8F6BD3-EE23-4733-8C8F-073E84F9FF3A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="0fc1d728-e6a7-4532-9964-0b6f8f7e4d34"/>
@@ -4775,6 +4791,14 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9029BFEE-2767-46A5-8FF1-D8842B26A38F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/timesheet.xlsx
+++ b/timesheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zackary Bair\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E305A1A0-BE82-4BD7-80BC-F8B975F653EE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26186DC2-BF7A-4737-8713-D2F18246E74E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="57840" windowHeight="32190" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="29">
   <si>
     <t>STEM Success RISE Research Associate Timesheet</t>
   </si>
@@ -114,6 +114,12 @@
   </si>
   <si>
     <t>005063193</t>
+  </si>
+  <si>
+    <t>Grabbing computer and creating window installation media</t>
+  </si>
+  <si>
+    <t>Installing windows, creating account, downloading data, and getting instructions for task</t>
   </si>
 </sst>
 </file>
@@ -401,7 +407,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -514,23 +520,15 @@
     <xf numFmtId="14" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="167" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -539,13 +537,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -562,6 +553,24 @@
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="17" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="9" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -785,7 +794,7 @@
   <dimension ref="A1:J1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
@@ -801,17 +810,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="27">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="56"/>
     </row>
     <row r="2" spans="1:9" ht="15.75">
       <c r="A2" s="1"/>
@@ -828,20 +837,20 @@
       <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="67" t="s">
+      <c r="B3" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="66"/>
-      <c r="D3" s="66"/>
-      <c r="E3" s="66"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
       <c r="F3" s="6"/>
       <c r="G3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="68" t="s">
+      <c r="H3" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="68"/>
+      <c r="I3" s="61"/>
     </row>
     <row r="4" spans="1:9" ht="15.75">
       <c r="A4" s="9"/>
@@ -859,17 +868,17 @@
         <v>3</v>
       </c>
       <c r="B5" s="5"/>
-      <c r="C5" s="69">
+      <c r="C5" s="62">
         <v>44075</v>
       </c>
-      <c r="D5" s="66"/>
-      <c r="E5" s="66"/>
+      <c r="D5" s="59"/>
+      <c r="E5" s="59"/>
       <c r="F5" s="6"/>
       <c r="G5" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="66"/>
-      <c r="I5" s="66"/>
+      <c r="H5" s="59"/>
+      <c r="I5" s="59"/>
     </row>
     <row r="6" spans="1:9" ht="15.75">
       <c r="A6" s="9"/>
@@ -896,10 +905,10 @@
       <c r="E7" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="65" t="s">
+      <c r="F7" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="G7" s="58"/>
+      <c r="G7" s="54"/>
       <c r="H7" s="16" t="s">
         <v>8</v>
       </c>
@@ -915,8 +924,8 @@
       <c r="C8" s="40"/>
       <c r="D8" s="40"/>
       <c r="E8" s="40"/>
-      <c r="F8" s="64"/>
-      <c r="G8" s="54"/>
+      <c r="F8" s="57"/>
+      <c r="G8" s="47"/>
       <c r="H8" s="18">
         <f>((D8*24)-(C8*24))+((F8*24)-(E8*24))</f>
         <v>0</v>
@@ -931,8 +940,8 @@
       <c r="C9" s="40"/>
       <c r="D9" s="40"/>
       <c r="E9" s="40"/>
-      <c r="F9" s="64"/>
-      <c r="G9" s="54"/>
+      <c r="F9" s="57"/>
+      <c r="G9" s="47"/>
       <c r="H9" s="18">
         <f t="shared" ref="H9:H13" si="0">((D9*24)-(C9*24))+((F9*24)-(E9*24))</f>
         <v>0</v>
@@ -947,8 +956,8 @@
       <c r="C10" s="40"/>
       <c r="D10" s="40"/>
       <c r="E10" s="40"/>
-      <c r="F10" s="64"/>
-      <c r="G10" s="54"/>
+      <c r="F10" s="57"/>
+      <c r="G10" s="47"/>
       <c r="H10" s="18">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -963,8 +972,8 @@
       <c r="C11" s="40"/>
       <c r="D11" s="40"/>
       <c r="E11" s="41"/>
-      <c r="F11" s="53"/>
-      <c r="G11" s="54"/>
+      <c r="F11" s="46"/>
+      <c r="G11" s="47"/>
       <c r="H11" s="18">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -979,8 +988,8 @@
       <c r="C12" s="41"/>
       <c r="D12" s="41"/>
       <c r="E12" s="41"/>
-      <c r="F12" s="53"/>
-      <c r="G12" s="54"/>
+      <c r="F12" s="46"/>
+      <c r="G12" s="47"/>
       <c r="H12" s="18">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1000,16 +1009,22 @@
       <c r="D13" s="41">
         <v>0.60416666666666663</v>
       </c>
-      <c r="E13" s="41"/>
-      <c r="F13" s="53"/>
-      <c r="G13" s="54"/>
+      <c r="E13" s="41">
+        <v>0.93055555555555547</v>
+      </c>
+      <c r="F13" s="46">
+        <v>0.96875</v>
+      </c>
+      <c r="G13" s="47"/>
       <c r="H13" s="18">
         <f t="shared" si="0"/>
-        <v>0.5</v>
-      </c>
-      <c r="I13" s="15"/>
-    </row>
-    <row r="14" spans="1:9" ht="15.75">
+        <v>1.4166666666666679</v>
+      </c>
+      <c r="I13" s="15" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="16.5" thickBot="1">
       <c r="A14" s="13" t="s">
         <v>16</v>
       </c>
@@ -1022,16 +1037,18 @@
       <c r="D14" s="41">
         <v>0.6875</v>
       </c>
-      <c r="E14" s="42"/>
-      <c r="F14" s="55"/>
-      <c r="G14" s="56"/>
+      <c r="E14" s="41"/>
+      <c r="F14" s="51"/>
+      <c r="G14" s="70"/>
       <c r="H14" s="18">
         <f>((D14*24)-(C14*24))+((F14*24)-(E14*24))</f>
         <v>3.5</v>
       </c>
-      <c r="I14" s="15"/>
-    </row>
-    <row r="15" spans="1:9" ht="15.75">
+      <c r="I14" s="15" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="16.5" thickBot="1">
       <c r="A15" s="9"/>
       <c r="B15" s="19"/>
       <c r="C15" s="6"/>
@@ -1043,7 +1060,7 @@
       <c r="G15" s="50"/>
       <c r="H15" s="20">
         <f>SUM(H8:H14)</f>
-        <v>4</v>
+        <v>4.9166666666666679</v>
       </c>
       <c r="I15" s="6"/>
     </row>
@@ -1072,10 +1089,10 @@
       <c r="E17" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="F17" s="57" t="s">
+      <c r="F17" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="G17" s="58"/>
+      <c r="G17" s="54"/>
       <c r="H17" s="16" t="s">
         <v>8</v>
       </c>
@@ -1091,8 +1108,8 @@
       <c r="C18" s="40"/>
       <c r="D18" s="40"/>
       <c r="E18" s="41"/>
-      <c r="F18" s="53"/>
-      <c r="G18" s="54"/>
+      <c r="F18" s="46"/>
+      <c r="G18" s="47"/>
       <c r="H18" s="18">
         <f>((D18*24)-(C18*24))+((F18*24)-(E18*24))</f>
         <v>0</v>
@@ -1107,8 +1124,8 @@
       <c r="C19" s="40"/>
       <c r="D19" s="40"/>
       <c r="E19" s="41"/>
-      <c r="F19" s="53"/>
-      <c r="G19" s="54"/>
+      <c r="F19" s="46"/>
+      <c r="G19" s="47"/>
       <c r="H19" s="18">
         <f t="shared" ref="H19:H24" si="1">((D19*24)-(C19*24))+((F19*24)-(E19*24))</f>
         <v>0</v>
@@ -1123,8 +1140,8 @@
       <c r="C20" s="41"/>
       <c r="D20" s="41"/>
       <c r="E20" s="41"/>
-      <c r="F20" s="53"/>
-      <c r="G20" s="54"/>
+      <c r="F20" s="46"/>
+      <c r="G20" s="47"/>
       <c r="H20" s="18">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -1139,8 +1156,8 @@
       <c r="C21" s="40"/>
       <c r="D21" s="40"/>
       <c r="E21" s="41"/>
-      <c r="F21" s="53"/>
-      <c r="G21" s="54"/>
+      <c r="F21" s="46"/>
+      <c r="G21" s="47"/>
       <c r="H21" s="18">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -1155,8 +1172,8 @@
       <c r="C22" s="41"/>
       <c r="D22" s="41"/>
       <c r="E22" s="41"/>
-      <c r="F22" s="53"/>
-      <c r="G22" s="54"/>
+      <c r="F22" s="46"/>
+      <c r="G22" s="47"/>
       <c r="H22" s="18">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -1171,8 +1188,8 @@
       <c r="C23" s="41"/>
       <c r="D23" s="41"/>
       <c r="E23" s="41"/>
-      <c r="F23" s="53"/>
-      <c r="G23" s="54"/>
+      <c r="F23" s="46"/>
+      <c r="G23" s="47"/>
       <c r="H23" s="18">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -1187,8 +1204,8 @@
       <c r="C24" s="41"/>
       <c r="D24" s="41"/>
       <c r="E24" s="42"/>
-      <c r="F24" s="55"/>
-      <c r="G24" s="56"/>
+      <c r="F24" s="51"/>
+      <c r="G24" s="52"/>
       <c r="H24" s="18">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -1236,10 +1253,10 @@
       <c r="E27" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="F27" s="57" t="s">
+      <c r="F27" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="G27" s="58"/>
+      <c r="G27" s="54"/>
       <c r="H27" s="16" t="s">
         <v>8</v>
       </c>
@@ -1255,8 +1272,8 @@
       <c r="C28" s="41"/>
       <c r="D28" s="41"/>
       <c r="E28" s="41"/>
-      <c r="F28" s="53"/>
-      <c r="G28" s="54"/>
+      <c r="F28" s="46"/>
+      <c r="G28" s="47"/>
       <c r="H28" s="18">
         <f>((D28*24)-(C28*24))+((F28*24)-(E28*24))</f>
         <v>0</v>
@@ -1271,8 +1288,8 @@
       <c r="C29" s="41"/>
       <c r="D29" s="41"/>
       <c r="E29" s="41"/>
-      <c r="F29" s="53"/>
-      <c r="G29" s="54"/>
+      <c r="F29" s="46"/>
+      <c r="G29" s="47"/>
       <c r="H29" s="18">
         <f t="shared" ref="H29:H34" si="2">((D29*24)-(C29*24))+((F29*24)-(E29*24))</f>
         <v>0</v>
@@ -1287,8 +1304,8 @@
       <c r="C30" s="40"/>
       <c r="D30" s="40"/>
       <c r="E30" s="41"/>
-      <c r="F30" s="53"/>
-      <c r="G30" s="54"/>
+      <c r="F30" s="46"/>
+      <c r="G30" s="47"/>
       <c r="H30" s="18">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -1303,8 +1320,8 @@
       <c r="C31" s="41"/>
       <c r="D31" s="41"/>
       <c r="E31" s="41"/>
-      <c r="F31" s="53"/>
-      <c r="G31" s="54"/>
+      <c r="F31" s="46"/>
+      <c r="G31" s="47"/>
       <c r="H31" s="18">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -1319,8 +1336,8 @@
       <c r="C32" s="40"/>
       <c r="D32" s="40"/>
       <c r="E32" s="41"/>
-      <c r="F32" s="53"/>
-      <c r="G32" s="54"/>
+      <c r="F32" s="46"/>
+      <c r="G32" s="47"/>
       <c r="H32" s="18">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -1335,8 +1352,8 @@
       <c r="C33" s="41"/>
       <c r="D33" s="41"/>
       <c r="E33" s="41"/>
-      <c r="F33" s="53"/>
-      <c r="G33" s="54"/>
+      <c r="F33" s="46"/>
+      <c r="G33" s="47"/>
       <c r="H33" s="18">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -1351,8 +1368,8 @@
       <c r="C34" s="41"/>
       <c r="D34" s="41"/>
       <c r="E34" s="42"/>
-      <c r="F34" s="55"/>
-      <c r="G34" s="56"/>
+      <c r="F34" s="51"/>
+      <c r="G34" s="52"/>
       <c r="H34" s="18">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -1400,10 +1417,10 @@
       <c r="E37" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="F37" s="57" t="s">
+      <c r="F37" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="G37" s="58"/>
+      <c r="G37" s="54"/>
       <c r="H37" s="16" t="s">
         <v>8</v>
       </c>
@@ -1419,8 +1436,8 @@
       <c r="C38" s="44"/>
       <c r="D38" s="44"/>
       <c r="E38" s="44"/>
-      <c r="F38" s="59"/>
-      <c r="G38" s="60"/>
+      <c r="F38" s="67"/>
+      <c r="G38" s="68"/>
       <c r="H38" s="18">
         <f>((D38*24)-(C38*24))+((F38*24)-(E38*24))</f>
         <v>0</v>
@@ -1435,8 +1452,8 @@
       <c r="C39" s="43"/>
       <c r="D39" s="43"/>
       <c r="E39" s="43"/>
-      <c r="F39" s="61"/>
-      <c r="G39" s="60"/>
+      <c r="F39" s="69"/>
+      <c r="G39" s="68"/>
       <c r="H39" s="18">
         <f t="shared" ref="H39:H44" si="3">((D39*24)-(C39*24))+((F39*24)-(E39*24))</f>
         <v>0</v>
@@ -1451,8 +1468,8 @@
       <c r="C40" s="44"/>
       <c r="D40" s="44"/>
       <c r="E40" s="44"/>
-      <c r="F40" s="59"/>
-      <c r="G40" s="60"/>
+      <c r="F40" s="67"/>
+      <c r="G40" s="68"/>
       <c r="H40" s="18">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -1467,8 +1484,8 @@
       <c r="C41" s="43"/>
       <c r="D41" s="43"/>
       <c r="E41" s="44"/>
-      <c r="F41" s="59"/>
-      <c r="G41" s="60"/>
+      <c r="F41" s="67"/>
+      <c r="G41" s="68"/>
       <c r="H41" s="18">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -1483,8 +1500,8 @@
       <c r="C42" s="44"/>
       <c r="D42" s="44"/>
       <c r="E42" s="44"/>
-      <c r="F42" s="59"/>
-      <c r="G42" s="60"/>
+      <c r="F42" s="67"/>
+      <c r="G42" s="68"/>
       <c r="H42" s="18">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -1499,8 +1516,8 @@
       <c r="C43" s="44"/>
       <c r="D43" s="44"/>
       <c r="E43" s="44"/>
-      <c r="F43" s="59"/>
-      <c r="G43" s="60"/>
+      <c r="F43" s="67"/>
+      <c r="G43" s="68"/>
       <c r="H43" s="18">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -1515,8 +1532,8 @@
       <c r="C44" s="44"/>
       <c r="D44" s="44"/>
       <c r="E44" s="45"/>
-      <c r="F44" s="46"/>
-      <c r="G44" s="47"/>
+      <c r="F44" s="63"/>
+      <c r="G44" s="64"/>
       <c r="H44" s="18">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -1547,14 +1564,14 @@
       <c r="B47" s="6"/>
       <c r="C47" s="6"/>
       <c r="D47" s="6"/>
-      <c r="E47" s="51" t="s">
+      <c r="E47" s="65" t="s">
         <v>18</v>
       </c>
       <c r="F47" s="49"/>
-      <c r="G47" s="52"/>
+      <c r="G47" s="66"/>
       <c r="H47" s="24">
         <f>SUM(H45+H35+H25+H15)</f>
-        <v>4</v>
+        <v>4.9166666666666679</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="15.75" customHeight="1">
@@ -4505,33 +4522,6 @@
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="F9:G9"/>
     <mergeCell ref="F44:G44"/>
     <mergeCell ref="E45:G45"/>
     <mergeCell ref="E47:G47"/>
@@ -4547,6 +4537,33 @@
     <mergeCell ref="F40:G40"/>
     <mergeCell ref="F41:G41"/>
     <mergeCell ref="F43:G43"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="F27:G27"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -4555,18 +4572,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4779,6 +4796,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9029BFEE-2767-46A5-8FF1-D8842B26A38F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1A8F6BD3-EE23-4733-8C8F-073E84F9FF3A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="0fc1d728-e6a7-4532-9964-0b6f8f7e4d34"/>
@@ -4791,14 +4816,6 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9029BFEE-2767-46A5-8FF1-D8842B26A38F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
